--- a/trunk/INFO_636/Assignment_5B/Supporting Docs/5BVannoniEstimations.xlsx
+++ b/trunk/INFO_636/Assignment_5B/Supporting Docs/5BVannoniEstimations.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
   <si>
     <t>Program Number I</t>
   </si>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>FileWriter - setFileContents</t>
-  </si>
-  <si>
-    <t>Assignment 5B</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1499,7 +1496,9 @@
         <v>3</v>
       </c>
       <c r="H7" s="82"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39">
+        <v>4</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
@@ -1519,7 +1518,9 @@
         <v>12</v>
       </c>
       <c r="H8" s="82"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>18</v>
+      </c>
       <c r="J8" s="37"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
@@ -1612,7 +1613,9 @@
         <v>2</v>
       </c>
       <c r="H12" s="45"/>
-      <c r="I12" s="47"/>
+      <c r="I12" s="47">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="46" t="s">
@@ -1633,7 +1636,9 @@
         <v>7</v>
       </c>
       <c r="H13" s="45"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="48">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="46" t="s">
@@ -1654,7 +1659,9 @@
         <v>3</v>
       </c>
       <c r="H14" s="45"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="48">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="46" t="s">
@@ -1675,7 +1682,9 @@
         <v>3</v>
       </c>
       <c r="H15" s="45"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="48">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1">
       <c r="B16" s="30"/>
@@ -1703,7 +1712,7 @@
       <c r="H17" s="55"/>
       <c r="I17" s="30">
         <f>SUM(I12:I16)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -1961,7 +1970,9 @@
         <v>2</v>
       </c>
       <c r="H28" s="55"/>
-      <c r="I28" s="47"/>
+      <c r="I28" s="47">
+        <v>1</v>
+      </c>
       <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:47">
@@ -1983,7 +1994,9 @@
         <v>2</v>
       </c>
       <c r="H29" s="55"/>
-      <c r="I29" s="48"/>
+      <c r="I29" s="48">
+        <v>2</v>
+      </c>
       <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:47">
@@ -2005,7 +2018,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="55"/>
-      <c r="I30" s="48"/>
+      <c r="I30" s="48">
+        <v>1</v>
+      </c>
       <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:47">
@@ -2036,7 +2051,7 @@
       <c r="H32" s="55"/>
       <c r="I32" s="30">
         <f>SUM(I28:I31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
@@ -2567,9 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4581,9 +4594,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="A114" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4598,7 +4609,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4804,9 +4815,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26" t="s">
-        <v>141</v>
-      </c>
+      <c r="A9" s="26"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9">
@@ -5056,7 +5065,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5262,6 +5271,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="26"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9">
